--- a/biology/Origine et évolution du vivant/La_Sole,_entre_l'eau_et_le_sable/La_Sole,_entre_l'eau_et_le_sable.xlsx
+++ b/biology/Origine et évolution du vivant/La_Sole,_entre_l'eau_et_le_sable/La_Sole,_entre_l'eau_et_le_sable.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Sole,_entre_l%27eau_et_le_sable</t>
+          <t>La_Sole,_entre_l'eau_et_le_sable</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Sole, entre l'eau et le sable est un court métrage français réalisé par Angèle Chiodo et sorti en 2011.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Sole,_entre_l%27eau_et_le_sable</t>
+          <t>La_Sole,_entre_l'eau_et_le_sable</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sole est un poisson plat, qui est devenu asymétrique au cours de l'évolution.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Sole,_entre_l%27eau_et_le_sable</t>
+          <t>La_Sole,_entre_l'eau_et_le_sable</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Angèle Chiodo
 Scénario : Angèle Chiodo
 Genre : animation / stop motion
-Musique : Julien Carton, Maurice Ravel (Concerto en Sol)[1]
+Musique : Julien Carton, Maurice Ravel (Concerto en Sol)
 Mixage : Christian Phaure
 Durée : 15 minutes</t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Sole,_entre_l%27eau_et_le_sable</t>
+          <t>La_Sole,_entre_l'eau_et_le_sable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Angèle Chiodo : voix
 Colette Macret : la grand-mère</t>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_Sole,_entre_l%27eau_et_le_sable</t>
+          <t>La_Sole,_entre_l'eau_et_le_sable</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +627,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2012 : Prix spécial du jury lors du Festival Silhouette de Paris
-2012 : Prix spécial du jury lors du festival international du court-métrage de Clermont-Ferrand[2]
-2012 : Mention spéciale du jury jeune au festival international du court-métrage de Clermont-Ferrand[2]
-2012 : Nommé au Festival international de films de femmes de Créteil[3]</t>
+2012 : Prix spécial du jury lors du festival international du court-métrage de Clermont-Ferrand
+2012 : Mention spéciale du jury jeune au festival international du court-métrage de Clermont-Ferrand
+2012 : Nommé au Festival international de films de femmes de Créteil</t>
         </is>
       </c>
     </row>
